--- a/完成体 y.xlsx
+++ b/完成体 y.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\和暉\Desktop\講義\PM実験３\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2318,7 +2318,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2327,22 +2333,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,6 +2353,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2403,7 +2403,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2464,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7698,14 +7698,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>164167</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
+      <xdr:colOff>405452</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>84197</xdr:rowOff>
     </xdr:to>
@@ -7716,8 +7716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848504" y="2707902"/>
-          <a:ext cx="2370123" cy="256207"/>
+          <a:off x="4482354" y="2678206"/>
+          <a:ext cx="2736274" cy="285903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7753,12 +7753,36 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>年次・オリエンテーション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>矢吹研究室　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -8013,80 +8037,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>74798</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>49867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848504" y="5451102"/>
-          <a:ext cx="2370123" cy="256207"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>43143</xdr:rowOff>
     </xdr:from>
@@ -8139,13 +8089,37 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -8159,16 +8133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
+      <xdr:colOff>549088</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114453</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8177,8 +8151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848504" y="4250952"/>
-          <a:ext cx="2370123" cy="256207"/>
+          <a:off x="4459941" y="4250952"/>
+          <a:ext cx="2902323" cy="208989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8214,12 +8188,52 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>年前期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実験 田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -8233,16 +8247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19611</xdr:rowOff>
+      <xdr:rowOff>8405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
+      <xdr:colOff>562334</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>107730</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8251,8 +8265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848504" y="3908052"/>
-          <a:ext cx="2370123" cy="256207"/>
+          <a:off x="4437530" y="3896846"/>
+          <a:ext cx="2937980" cy="226919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8288,12 +8302,52 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>年前期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実験 矢吹研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -8307,16 +8361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74798</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504266</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90921</xdr:rowOff>
+      <xdr:colOff>405452</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8325,8 +8379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848504" y="3050802"/>
-          <a:ext cx="2370123" cy="256207"/>
+          <a:off x="4493560" y="3050802"/>
+          <a:ext cx="2725068" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8362,12 +8416,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○研究室　○○グループ</a:t>
+            <a:t>年次・オリエンテーション田隈研究室　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:solidFill>
@@ -8552,6 +8614,250 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4482353" y="5053854"/>
+          <a:ext cx="2902323" cy="208989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年後期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実験</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499782</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489076" y="5385548"/>
+          <a:ext cx="2902323" cy="208989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年後期・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実験 田隈研究室　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14161,7 +14467,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="82" zoomScaleNormal="85" zoomScaleSheetLayoutView="82" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -16649,20 +16955,20 @@
       <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="88" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="89"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="28" t="s">
         <v>18</v>
       </c>
@@ -16682,20 +16988,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -16715,20 +17021,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="23" t="s">
         <v>90</v>
       </c>
@@ -16748,20 +17054,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="23" t="s">
         <v>20</v>
       </c>
@@ -16781,20 +17087,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="23" t="s">
         <v>90</v>
       </c>
@@ -16814,18 +17120,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="87"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -16839,20 +17145,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86" t="s">
+      <c r="F13" s="89"/>
+      <c r="G13" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="23" t="s">
         <v>20</v>
       </c>
@@ -16872,20 +17178,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="23" t="s">
         <v>90</v>
       </c>
@@ -16905,20 +17211,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86" t="s">
+      <c r="F15" s="89"/>
+      <c r="G15" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -16938,20 +17244,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86" t="s">
+      <c r="F16" s="89"/>
+      <c r="G16" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -16971,14 +17277,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -16992,14 +17298,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -17013,14 +17319,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -17034,14 +17340,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -17055,14 +17361,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -17073,14 +17379,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="31"/>
@@ -17425,41 +17731,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -17476,6 +17747,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -17646,21 +17952,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>35</v>
@@ -17672,21 +17978,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -17696,21 +18002,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="95"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -17720,21 +18026,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+      <c r="D10" s="93"/>
+      <c r="E10" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -17744,21 +18050,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -17768,21 +18074,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -17792,21 +18098,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -17816,21 +18122,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -17840,15 +18146,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>36</v>
@@ -17860,15 +18166,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -18315,6 +18621,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:K16"/>
@@ -18324,30 +18654,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20673,7 +20979,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
